--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.299916333333334</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H2">
-        <v>24.899749</v>
+        <v>36.958219</v>
       </c>
       <c r="I2">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J2">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>60.73844666666668</v>
+        <v>111.7929483333333</v>
       </c>
       <c r="N2">
-        <v>182.21534</v>
+        <v>335.378845</v>
       </c>
       <c r="O2">
-        <v>0.5961423603817748</v>
+        <v>0.7150986351558443</v>
       </c>
       <c r="P2">
-        <v>0.5961423603817747</v>
+        <v>0.7150986351558442</v>
       </c>
       <c r="Q2">
-        <v>504.1240255499623</v>
+        <v>1377.222755719672</v>
       </c>
       <c r="R2">
-        <v>4537.116229949661</v>
+        <v>12395.00480147705</v>
       </c>
       <c r="S2">
-        <v>0.178832715646043</v>
+        <v>0.2718639368423714</v>
       </c>
       <c r="T2">
-        <v>0.1788327156460429</v>
+        <v>0.2718639368423713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.299916333333334</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H3">
-        <v>24.899749</v>
+        <v>36.958219</v>
       </c>
       <c r="I3">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J3">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>94.52688699999999</v>
       </c>
       <c r="O3">
-        <v>0.3092576153891395</v>
+        <v>0.2015513169270731</v>
       </c>
       <c r="P3">
-        <v>0.3092576153891395</v>
+        <v>0.2015513169270731</v>
       </c>
       <c r="Q3">
-        <v>261.5217511168181</v>
+        <v>388.1717101260281</v>
       </c>
       <c r="R3">
-        <v>2353.695760051363</v>
+        <v>3493.545391134252</v>
       </c>
       <c r="S3">
-        <v>0.09277210087677927</v>
+        <v>0.07662514204577804</v>
       </c>
       <c r="T3">
-        <v>0.09277210087677926</v>
+        <v>0.07662514204577803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.299916333333334</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H4">
-        <v>24.899749</v>
+        <v>36.958219</v>
       </c>
       <c r="I4">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J4">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.626392999999998</v>
+        <v>13.030297</v>
       </c>
       <c r="N4">
-        <v>28.879179</v>
+        <v>39.090891</v>
       </c>
       <c r="O4">
-        <v>0.09448217661009099</v>
+        <v>0.08335004791708278</v>
       </c>
       <c r="P4">
-        <v>0.09448217661009099</v>
+        <v>0.08335004791708277</v>
       </c>
       <c r="Q4">
-        <v>79.89825649178566</v>
+        <v>160.5255233870143</v>
       </c>
       <c r="R4">
-        <v>719.0843084260709</v>
+        <v>1444.729710483129</v>
       </c>
       <c r="S4">
-        <v>0.02834306928383842</v>
+        <v>0.03168775753263753</v>
       </c>
       <c r="T4">
-        <v>0.02834306928383842</v>
+        <v>0.03168775753263752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8.299916333333334</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H5">
-        <v>24.899749</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I5">
-        <v>0.2999832381170111</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J5">
-        <v>0.2999832381170111</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.012007</v>
+        <v>111.7929483333333</v>
       </c>
       <c r="N5">
-        <v>0.036021</v>
+        <v>335.378845</v>
       </c>
       <c r="O5">
-        <v>0.000117847618994712</v>
+        <v>0.7150986351558443</v>
       </c>
       <c r="P5">
-        <v>0.000117847618994712</v>
+        <v>0.7150986351558442</v>
       </c>
       <c r="Q5">
-        <v>0.09965709541433333</v>
+        <v>2024.866620158381</v>
       </c>
       <c r="R5">
-        <v>0.896913858729</v>
+        <v>18223.79958142544</v>
       </c>
       <c r="S5">
-        <v>3.535231035041348E-05</v>
+        <v>0.3997089132101254</v>
       </c>
       <c r="T5">
-        <v>3.535231035041348E-05</v>
+        <v>0.3997089132101252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.11265066666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H6">
-        <v>54.337952</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I6">
-        <v>0.6546441409351843</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J6">
-        <v>0.6546441409351844</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>60.73844666666668</v>
+        <v>31.50896233333333</v>
       </c>
       <c r="N6">
-        <v>182.21534</v>
+        <v>94.52688699999999</v>
       </c>
       <c r="O6">
-        <v>0.5961423603817748</v>
+        <v>0.2015513169270731</v>
       </c>
       <c r="P6">
-        <v>0.5961423603817747</v>
+        <v>0.2015513169270731</v>
       </c>
       <c r="Q6">
-        <v>1100.134266509298</v>
+        <v>570.7108276128247</v>
       </c>
       <c r="R6">
-        <v>9901.208398583682</v>
+        <v>5136.397448515423</v>
       </c>
       <c r="S6">
-        <v>0.3902611033872</v>
+        <v>0.1126583856888956</v>
       </c>
       <c r="T6">
-        <v>0.3902611033872</v>
+        <v>0.1126583856888956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.11265066666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H7">
-        <v>54.337952</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I7">
-        <v>0.6546441409351843</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J7">
-        <v>0.6546441409351844</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.50896233333333</v>
+        <v>13.030297</v>
       </c>
       <c r="N7">
-        <v>94.52688699999999</v>
+        <v>39.090891</v>
       </c>
       <c r="O7">
-        <v>0.3092576153891395</v>
+        <v>0.08335004791708278</v>
       </c>
       <c r="P7">
-        <v>0.3092576153891395</v>
+        <v>0.08335004791708277</v>
       </c>
       <c r="Q7">
-        <v>570.7108276128248</v>
+        <v>236.0132176439146</v>
       </c>
       <c r="R7">
-        <v>5136.397448515423</v>
+        <v>2124.118958795232</v>
       </c>
       <c r="S7">
-        <v>0.2024536859540869</v>
+        <v>0.04658903741536075</v>
       </c>
       <c r="T7">
-        <v>0.2024536859540869</v>
+        <v>0.04658903741536073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.11265066666667</v>
+        <v>1.603212</v>
       </c>
       <c r="H8">
-        <v>54.337952</v>
+        <v>4.809636</v>
       </c>
       <c r="I8">
-        <v>0.6546441409351843</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="J8">
-        <v>0.6546441409351844</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.626392999999998</v>
+        <v>111.7929483333333</v>
       </c>
       <c r="N8">
-        <v>28.879179</v>
+        <v>335.378845</v>
       </c>
       <c r="O8">
-        <v>0.09448217661009099</v>
+        <v>0.7150986351558443</v>
       </c>
       <c r="P8">
-        <v>0.09448217661009099</v>
+        <v>0.7150986351558442</v>
       </c>
       <c r="Q8">
-        <v>174.3594935890453</v>
+        <v>179.22779628338</v>
       </c>
       <c r="R8">
-        <v>1569.235442301408</v>
+        <v>1613.05016655042</v>
       </c>
       <c r="S8">
-        <v>0.06185220334059938</v>
+        <v>0.0353795884411745</v>
       </c>
       <c r="T8">
-        <v>0.06185220334059939</v>
+        <v>0.03537958844117449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.11265066666667</v>
+        <v>1.603212</v>
       </c>
       <c r="H9">
-        <v>54.337952</v>
+        <v>4.809636</v>
       </c>
       <c r="I9">
-        <v>0.6546441409351843</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="J9">
-        <v>0.6546441409351844</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.012007</v>
+        <v>31.50896233333333</v>
       </c>
       <c r="N9">
-        <v>0.036021</v>
+        <v>94.52688699999999</v>
       </c>
       <c r="O9">
-        <v>0.000117847618994712</v>
+        <v>0.2015513169270731</v>
       </c>
       <c r="P9">
-        <v>0.000117847618994712</v>
+        <v>0.2015513169270731</v>
       </c>
       <c r="Q9">
-        <v>0.2174785965546666</v>
+        <v>50.515546520348</v>
       </c>
       <c r="R9">
-        <v>1.957307368992</v>
+        <v>454.639918683132</v>
       </c>
       <c r="S9">
-        <v>7.714825329805014E-05</v>
+        <v>0.00997177493018502</v>
       </c>
       <c r="T9">
-        <v>7.714825329805015E-05</v>
+        <v>0.00997177493018502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.193828666666667</v>
+        <v>1.603212</v>
       </c>
       <c r="H10">
-        <v>3.581486</v>
+        <v>4.809636</v>
       </c>
       <c r="I10">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="J10">
-        <v>0.04314845774351948</v>
+        <v>0.04947511672073613</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>60.73844666666668</v>
+        <v>13.030297</v>
       </c>
       <c r="N10">
-        <v>182.21534</v>
+        <v>39.090891</v>
       </c>
       <c r="O10">
-        <v>0.5961423603817748</v>
+        <v>0.08335004791708278</v>
       </c>
       <c r="P10">
-        <v>0.5961423603817747</v>
+        <v>0.08335004791708277</v>
       </c>
       <c r="Q10">
-        <v>72.51129879947112</v>
+        <v>20.890328513964</v>
       </c>
       <c r="R10">
-        <v>652.6016891952401</v>
+        <v>188.012956625676</v>
       </c>
       <c r="S10">
-        <v>0.02572262344605497</v>
+        <v>0.00412375334937662</v>
       </c>
       <c r="T10">
-        <v>0.02572262344605497</v>
+        <v>0.00412375334937662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.193828666666667</v>
+        <v>0.3691416666666666</v>
       </c>
       <c r="H11">
-        <v>3.581486</v>
+        <v>1.107425</v>
       </c>
       <c r="I11">
-        <v>0.04314845774351948</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="J11">
-        <v>0.04314845774351948</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.50896233333333</v>
+        <v>111.7929483333333</v>
       </c>
       <c r="N11">
-        <v>94.52688699999999</v>
+        <v>335.378845</v>
       </c>
       <c r="O11">
-        <v>0.3092576153891395</v>
+        <v>0.7150986351558443</v>
       </c>
       <c r="P11">
-        <v>0.3092576153891395</v>
+        <v>0.7150986351558442</v>
       </c>
       <c r="Q11">
-        <v>37.61630249045355</v>
+        <v>41.26743526934721</v>
       </c>
       <c r="R11">
-        <v>338.546722414082</v>
+        <v>371.4069174241249</v>
       </c>
       <c r="S11">
-        <v>0.01334398914947989</v>
+        <v>0.008146196662173118</v>
       </c>
       <c r="T11">
-        <v>0.01334398914947989</v>
+        <v>0.008146196662173115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.193828666666667</v>
+        <v>0.3691416666666666</v>
       </c>
       <c r="H12">
-        <v>3.581486</v>
+        <v>1.107425</v>
       </c>
       <c r="I12">
-        <v>0.04314845774351948</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="J12">
-        <v>0.04314845774351948</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.626392999999998</v>
+        <v>31.50896233333333</v>
       </c>
       <c r="N12">
-        <v>28.879179</v>
+        <v>94.52688699999999</v>
       </c>
       <c r="O12">
-        <v>0.09448217661009099</v>
+        <v>0.2015513169270731</v>
       </c>
       <c r="P12">
-        <v>0.09448217661009099</v>
+        <v>0.2015513169270731</v>
       </c>
       <c r="Q12">
-        <v>11.49226391999933</v>
+        <v>11.63127087066389</v>
       </c>
       <c r="R12">
-        <v>103.430375279994</v>
+        <v>104.681437835975</v>
       </c>
       <c r="S12">
-        <v>0.004076760204976255</v>
+        <v>0.002296014262214468</v>
       </c>
       <c r="T12">
-        <v>0.004076760204976256</v>
+        <v>0.002296014262214467</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.193828666666667</v>
+        <v>0.3691416666666666</v>
       </c>
       <c r="H13">
-        <v>3.581486</v>
+        <v>1.107425</v>
       </c>
       <c r="I13">
-        <v>0.04314845774351948</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="J13">
-        <v>0.04314845774351948</v>
+        <v>0.01139171054409548</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.012007</v>
+        <v>13.030297</v>
       </c>
       <c r="N13">
-        <v>0.036021</v>
+        <v>39.090891</v>
       </c>
       <c r="O13">
-        <v>0.000117847618994712</v>
+        <v>0.08335004791708278</v>
       </c>
       <c r="P13">
-        <v>0.000117847618994712</v>
+        <v>0.08335004791708277</v>
       </c>
       <c r="Q13">
-        <v>0.01433430080066666</v>
+        <v>4.810025551741666</v>
       </c>
       <c r="R13">
-        <v>0.129008707206</v>
+        <v>43.290229965675</v>
       </c>
       <c r="S13">
-        <v>5.084943008367713E-06</v>
+        <v>0.0009494996197078954</v>
       </c>
       <c r="T13">
-        <v>5.084943008367714E-06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.061538</v>
-      </c>
-      <c r="H14">
-        <v>0.184614</v>
-      </c>
-      <c r="I14">
-        <v>0.002224163204285066</v>
-      </c>
-      <c r="J14">
-        <v>0.002224163204285067</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>60.73844666666668</v>
-      </c>
-      <c r="N14">
-        <v>182.21534</v>
-      </c>
-      <c r="O14">
-        <v>0.5961423603817748</v>
-      </c>
-      <c r="P14">
-        <v>0.5961423603817747</v>
-      </c>
-      <c r="Q14">
-        <v>3.737722530973334</v>
-      </c>
-      <c r="R14">
-        <v>33.63950277876</v>
-      </c>
-      <c r="S14">
-        <v>0.001325917902476791</v>
-      </c>
-      <c r="T14">
-        <v>0.001325917902476791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.061538</v>
-      </c>
-      <c r="H15">
-        <v>0.184614</v>
-      </c>
-      <c r="I15">
-        <v>0.002224163204285066</v>
-      </c>
-      <c r="J15">
-        <v>0.002224163204285067</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>31.50896233333333</v>
-      </c>
-      <c r="N15">
-        <v>94.52688699999999</v>
-      </c>
-      <c r="O15">
-        <v>0.3092576153891395</v>
-      </c>
-      <c r="P15">
-        <v>0.3092576153891395</v>
-      </c>
-      <c r="Q15">
-        <v>1.938998524068666</v>
-      </c>
-      <c r="R15">
-        <v>17.450986716618</v>
-      </c>
-      <c r="S15">
-        <v>0.0006878394087934672</v>
-      </c>
-      <c r="T15">
-        <v>0.0006878394087934672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.061538</v>
-      </c>
-      <c r="H16">
-        <v>0.184614</v>
-      </c>
-      <c r="I16">
-        <v>0.002224163204285066</v>
-      </c>
-      <c r="J16">
-        <v>0.002224163204285067</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>9.626392999999998</v>
-      </c>
-      <c r="N16">
-        <v>28.879179</v>
-      </c>
-      <c r="O16">
-        <v>0.09448217661009099</v>
-      </c>
-      <c r="P16">
-        <v>0.09448217661009099</v>
-      </c>
-      <c r="Q16">
-        <v>0.5923889724339999</v>
-      </c>
-      <c r="R16">
-        <v>5.331500751906</v>
-      </c>
-      <c r="S16">
-        <v>0.0002101437806769275</v>
-      </c>
-      <c r="T16">
-        <v>0.0002101437806769275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.061538</v>
-      </c>
-      <c r="H17">
-        <v>0.184614</v>
-      </c>
-      <c r="I17">
-        <v>0.002224163204285066</v>
-      </c>
-      <c r="J17">
-        <v>0.002224163204285067</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.012007</v>
-      </c>
-      <c r="N17">
-        <v>0.036021</v>
-      </c>
-      <c r="O17">
-        <v>0.000117847618994712</v>
-      </c>
-      <c r="P17">
-        <v>0.000117847618994712</v>
-      </c>
-      <c r="Q17">
-        <v>0.000738886766</v>
-      </c>
-      <c r="R17">
-        <v>0.006649980894</v>
-      </c>
-      <c r="S17">
-        <v>2.621123378806443E-07</v>
-      </c>
-      <c r="T17">
-        <v>2.621123378806443E-07</v>
+        <v>0.0009494996197078951</v>
       </c>
     </row>
   </sheetData>
